--- a/TableSupp/beta_v1_table.xlsx
+++ b/TableSupp/beta_v1_table.xlsx
@@ -423,13 +423,13 @@
         <v>810</v>
       </c>
       <c r="C2">
-        <v>487</v>
+        <v>516.15</v>
       </c>
       <c r="D2">
-        <v>266</v>
+        <v>264.88</v>
       </c>
       <c r="E2">
-        <v>3.7</v>
+        <v>3.14</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -443,13 +443,13 @@
         <v>1350</v>
       </c>
       <c r="C3">
-        <v>741</v>
+        <v>829.9400000000001</v>
       </c>
       <c r="D3">
-        <v>430</v>
+        <v>428.02</v>
       </c>
       <c r="E3">
-        <v>3.7</v>
+        <v>3.14</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -463,13 +463,13 @@
         <v>2160</v>
       </c>
       <c r="C4">
-        <v>1122</v>
+        <v>1300.62</v>
       </c>
       <c r="D4">
-        <v>676</v>
+        <v>672.74</v>
       </c>
       <c r="E4">
-        <v>3.7</v>
+        <v>3.14</v>
       </c>
       <c r="F4">
         <v>0</v>

--- a/TableSupp/beta_v1_table.xlsx
+++ b/TableSupp/beta_v1_table.xlsx
@@ -420,16 +420,16 @@
         <v>0.3</v>
       </c>
       <c r="B2">
-        <v>810</v>
+        <v>81</v>
       </c>
       <c r="C2">
-        <v>516.15</v>
+        <v>51.62</v>
       </c>
       <c r="D2">
-        <v>264.88</v>
+        <v>26.49</v>
       </c>
       <c r="E2">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -440,16 +440,16 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>1350</v>
+        <v>135</v>
       </c>
       <c r="C3">
-        <v>829.9400000000001</v>
+        <v>82.98999999999999</v>
       </c>
       <c r="D3">
-        <v>428.02</v>
+        <v>42.8</v>
       </c>
       <c r="E3">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -460,16 +460,16 @@
         <v>0.8</v>
       </c>
       <c r="B4">
-        <v>2160</v>
+        <v>216</v>
       </c>
       <c r="C4">
-        <v>1300.62</v>
+        <v>130.06</v>
       </c>
       <c r="D4">
-        <v>672.74</v>
+        <v>67.27</v>
       </c>
       <c r="E4">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="F4">
         <v>0</v>
